--- a/use_cases/ancestry/ancestry_export.xlsx
+++ b/use_cases/ancestry/ancestry_export.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>middle_initial</t>
+          <t>middle_name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mainden_name</t>
+          <t>maiden_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -562,7 +562,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:15</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:15</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-02-03 21:46:26</t>
+          <t>2025-02-04 20:21:16</t>
         </is>
       </c>
     </row>

--- a/use_cases/ancestry/ancestry_export.xlsx
+++ b/use_cases/ancestry/ancestry_export.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Relationships" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,7 +561,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:15</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -607,7 +606,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:15</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -652,7 +651,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -697,7 +696,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -742,7 +741,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -787,7 +786,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -832,7 +831,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -877,7 +876,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -922,7 +921,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -967,7 +966,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1011,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1056,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1101,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1146,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1195,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1244,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>
@@ -1294,448 +1293,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-02-04 20:21:16</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>relationship_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>person1_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>person2_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>relationship_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>15</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>16</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>17</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>17</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>parent</t>
+          <t>2025-02-05 22:28:25</t>
         </is>
       </c>
     </row>

--- a/use_cases/ancestry/ancestry_export.xlsx
+++ b/use_cases/ancestry/ancestry_export.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>father_id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>mother_id</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>father_id</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -548,11 +548,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Italian-American</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -561,7 +565,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -593,11 +597,15 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Italian-American</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -606,7 +614,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -651,7 +659,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -696,7 +704,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -728,7 +736,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Italian-American</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -741,7 +749,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -773,7 +781,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Italian-American</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -786,7 +794,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -831,7 +839,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -876,7 +884,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -921,7 +929,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -966,7 +974,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1019,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1064,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1109,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1154,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1203,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1252,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1301,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-02-05 22:28:25</t>
+          <t>2025-02-05 22:22:19</t>
         </is>
       </c>
     </row>

--- a/use_cases/ancestry/ancestry_export.xlsx
+++ b/use_cases/ancestry/ancestry_export.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paolo</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -636,21 +636,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1905-08-20</t>
+          <t>1960-07-15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Italian</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -669,33 +673,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Gianna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Conti</t>
+          <t>Veneziano</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1908-04-10</t>
+          <t>1963-04-25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Italian</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -714,33 +722,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Angelo</t>
+          <t>Marco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mancini</t>
+          <t>Veneziano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1906-12-05</t>
+          <t>1966-09-10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -759,33 +771,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Paolo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ricci</t>
+          <t>Veneziano</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1909-09-14</t>
+          <t>1905-08-20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -804,19 +820,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Giovanni</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Veneziano</t>
+          <t>Conti</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1880-06-15</t>
+          <t>1908-04-10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -826,11 +842,15 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Italian</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -849,33 +869,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Angelo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Russo</t>
+          <t>Mancini</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1882-09-21</t>
+          <t>1906-12-05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Italian</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -894,33 +918,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mancini</t>
+          <t>Ricci</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1878-11-03</t>
+          <t>1909-09-14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Italian</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -939,29 +967,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Giovanni</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ferrara</t>
+          <t>Veneziano</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1881-07-12</t>
+          <t>1880-06-15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -984,19 +1012,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marco</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ricci</t>
+          <t>Russo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1879-05-30</t>
+          <t>1882-09-21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1006,7 +1034,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1029,19 +1057,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Caterina</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bianchi</t>
+          <t>Mancini</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1883-02-17</t>
+          <t>1878-11-03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1051,7 +1079,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1074,29 +1102,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Luisa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Conti</t>
+          <t>Ferrara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1885-01-20</t>
+          <t>1881-07-12</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1119,19 +1147,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Elisabetta</t>
+          <t>Marco</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rosati</t>
+          <t>Ricci</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1887-06-10</t>
+          <t>1879-05-30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1141,7 +1169,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1164,37 +1192,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Caterina</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Veneziano</t>
+          <t>Bianchi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1960-07-15</t>
+          <t>1883-02-17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Italian-American</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1213,37 +1237,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gianna</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Veneziano</t>
+          <t>Conti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1963-04-25</t>
+          <t>1885-01-20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Italian-American</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1262,37 +1282,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Marco</t>
+          <t>Elisabetta</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Veneziano</t>
+          <t>Rosati</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1966-09-10</t>
+          <t>1887-06-10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Italian-American</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>

--- a/use_cases/ancestry/ancestry_export.xlsx
+++ b/use_cases/ancestry/ancestry_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,120 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>place_of_birth</t>
+          <t>birth_city</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>birth_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>birth_country_code</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>birth_latitude</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>birth_longitude</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>death_date</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>death_city</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>death_state</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>death_country_code</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>death_latitude</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>death_longitude</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>nationality</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>father_id</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>mother_id</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>occupation</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>residence</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>death_date</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>death_place</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>residence_street</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>residence_city</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>residence_state</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>residence_country_code</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>residence_latitude</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>residence_longitude</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>cause_of_death</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
@@ -548,24 +613,69 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
       <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>39.9526</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-75.1652</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>123 Main St</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>39.9526</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-75.1652</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -592,29 +702,74 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
       <c r="J3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>40.7128</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-74.006</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>456 Park Ave</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>40.7128</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-74.006</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -646,24 +801,65 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>39.9526</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-75.1652</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>39.9526</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-75.1652</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -695,24 +891,65 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>39.9526</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-75.1652</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>39.9526</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-75.1652</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -744,24 +981,65 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>39.9526</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-75.1652</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>39.9526</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-75.1652</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -788,29 +1066,70 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
+          <t>LAZ</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>41.9028</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.4964</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>LAZ</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>41.9028</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12.4964</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -837,29 +1156,70 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Naples</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>40.8518</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.2681</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>13</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Naples</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>40.8518</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>14.2681</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -869,46 +1229,87 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Angelo</t>
+          <t>Giovanni</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mancini</t>
+          <t>Veneziano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1906-12-05</t>
+          <t>1880-06-15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Florence</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>14</v>
+          <t>TOS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>43.7696</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.2558</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Florence</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>TOS</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>43.7696</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11.2558</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -918,46 +1319,87 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ricci</t>
+          <t>Russo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1909-09-14</t>
+          <t>1882-09-21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>45.4642</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.19</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>16</v>
+      </c>
+      <c r="T10" t="n">
+        <v>17</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>45.4642</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -984,25 +1426,66 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>LAZ</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>41.9028</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.4964</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>LAZ</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>41.9028</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12.4964</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -1029,25 +1512,66 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>LAZ</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>41.9028</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.4964</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>LAZ</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>41.9028</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12.4964</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -1074,25 +1598,66 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Naples</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>40.8518</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.2681</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Naples</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>40.8518</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>14.2681</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -1119,25 +1684,66 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>40.7128</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-74.006</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>40.7128</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-74.006</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -1164,25 +1770,66 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Florence</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>TOS</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>43.7696</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.2558</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Florence</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>TOS</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>43.7696</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11.2558</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -1209,25 +1856,66 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Florence</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>TOS</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>43.7696</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.2558</v>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Florence</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>TOS</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>43.7696</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11.2558</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -1254,25 +1942,66 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>45.4642</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.19</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>45.4642</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
@@ -1299,25 +2028,66 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>45.4642</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.19</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2025-02-05 22:22:19</t>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>45.4642</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:34:34</t>
         </is>
       </c>
     </row>
